--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Web\open-elective\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23BC23BB-327D-458E-9935-2E2ADF8458C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BABCF-AE7D-4C9D-B799-D3F8D571971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C239FC9E-D573-4D90-9F7E-8C55BF7851B8}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>PRN (10 digit)</t>
-  </si>
-  <si>
     <t>CGPA (Upto 2 decimal)</t>
   </si>
   <si>
-    <t>Branch(CS,IT,ENTC,ETX,MECH,CIVIL,CHEM)</t>
+    <t>PRN (9 digits)</t>
+  </si>
+  <si>
+    <t>Branch(SCET, SEE, SMCEM, SMCEC, SCE)</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,13 +460,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
